--- a/reference_data/Y5_B2526_General_&_Special_Internal_2_B2_reference_data.xlsx
+++ b/reference_data/Y5_B2526_General_&_Special_Internal_2_B2_reference_data.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -66,10 +70,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -91,7 +104,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -456,7 +469,7 @@
   </sheetPr>
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -466,7 +479,7 @@
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,10 +512,14 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>200913</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr"/>
+          <t>212102</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>الاء احمد حسين عثمان</t>
+        </is>
+      </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Year 5</t>
@@ -510,24 +527,24 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>B2A1</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>212102</t>
+          <t>212104</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>الاء احمد حسين عثمان</t>
+          <t>Tourad El Hadi</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -542,19 +559,19 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>212104</t>
+          <t>212117</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Tourad El Hadi</t>
+          <t>رفقه عبد الخالق محمد محمد احمد</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -569,19 +586,19 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>212117</t>
+          <t>212122</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>رفقه عبد الخالق محمد محمد احمد</t>
+          <t>احمد عثمان محمد عبد الله</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -596,19 +613,19 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>212122</t>
+          <t>212139</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>احمد عثمان محمد عبد الله</t>
+          <t>فاطمه صلاح احمد عثمان</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -623,19 +640,19 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>212139</t>
+          <t>212146</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>فاطمه صلاح احمد عثمان</t>
+          <t>ايهاب اسماعيل يوسف ادعيس</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -650,19 +667,19 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>212146</t>
+          <t>212147</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ايهاب اسماعيل يوسف ادعيس</t>
+          <t>رامى حسين داود دبوبش</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -677,19 +694,19 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>212147</t>
+          <t>212151</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>رامى حسين داود دبوبش</t>
+          <t>ماهر صالح جابر عثمان</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -704,19 +721,19 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>212151</t>
+          <t>212162</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ماهر صالح جابر عثمان</t>
+          <t>صلاح الدين بابكر الامين السنى</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -731,19 +748,19 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>212162</t>
+          <t>212185</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>صلاح الدين بابكر الامين السنى</t>
+          <t>عبد الرحمن عمر على ادريس</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -758,19 +775,19 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>212185</t>
+          <t>212202</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن عمر على ادريس</t>
+          <t>شجن خالد محمود احمد</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -785,19 +802,19 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>212202</t>
+          <t>212204</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>شجن خالد محمود احمد</t>
+          <t>رزان يعقوب محمد فقير نصر الله</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -812,19 +829,19 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>212204</t>
+          <t>212208</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>رزان يعقوب محمد فقير نصر الله</t>
+          <t>ساره منوره عثمان عباس</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -839,19 +856,19 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>212208</t>
+          <t>212249</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>ساره منوره عثمان عباس</t>
+          <t>كنانه عبد العظيم عقله</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -866,19 +883,19 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>212249</t>
+          <t>212251</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>كنانه عبد العظيم عقله</t>
+          <t>احمد عبد المنعم احمد طه</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -893,19 +910,19 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>212251</t>
+          <t>212253</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>احمد عبد المنعم احمد طه</t>
+          <t>لجين عبد الله إبراهيم عبد الله</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -920,19 +937,19 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>212253</t>
+          <t>212256</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>لجين عبد الله إبراهيم عبد الله</t>
+          <t>ماريا محمد الكمشه</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -947,19 +964,19 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>212256</t>
+          <t>212263</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>ماريا محمد الكمشه</t>
+          <t>Mohamed Babiker Musa</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -974,19 +991,19 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>212263</t>
+          <t>212280</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Mohamed Babiker Musa</t>
+          <t>هبه مهدى علم الهدى احمد</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1001,19 +1018,19 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>212280</t>
+          <t>212286</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>هبه مهدى علم الهدى احمد</t>
+          <t>لينا السر العوض أبو شمه</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -1028,19 +1045,19 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>212286</t>
+          <t>212287</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>لينا السر العوض أبو شمه</t>
+          <t>لميس محمد عبد المنعم شعراوى</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1055,19 +1072,19 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>212287</t>
+          <t>212288</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>لميس محمد عبد المنعم شعراوى</t>
+          <t>عماد احمد صالح باسهل</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -1082,19 +1099,19 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>212288</t>
+          <t>212296</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>عماد احمد صالح باسهل</t>
+          <t>محمد عثمان سليمان إبراهيم</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1109,19 +1126,19 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>212296</t>
+          <t>212297</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>محمد عثمان سليمان إبراهيم</t>
+          <t>عبد الوهاب نوراى سليمان ابو موسى</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -1136,19 +1153,19 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>212297</t>
+          <t>212304</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>عبد الوهاب نوراى سليمان ابو موسى</t>
+          <t xml:space="preserve">احمد نبيل سيد احمد محمد  </t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1163,19 +1180,19 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>212304</t>
+          <t>212313</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد نبيل سيد احمد محمد  </t>
+          <t>لينا ماهر محمود العربي</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
@@ -1185,24 +1202,24 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>B2A1</t>
+          <t>B2A2</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>212313</t>
+          <t>212327</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>لينا ماهر محمود العربي</t>
+          <t>المعز بالله محمد عبد المنعم محمد</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1217,19 +1234,19 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>212327</t>
+          <t>212329</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>المعز بالله محمد عبد المنعم محمد</t>
+          <t>نورا اسامه عثمان محمد</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -1244,19 +1261,19 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>212329</t>
+          <t>212334</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>نورا اسامه عثمان محمد</t>
+          <t>عدنان سليمان يحى حامد</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1271,19 +1288,19 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>212334</t>
+          <t>212338</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>عدنان سليمان يحى حامد</t>
+          <t xml:space="preserve">رؤى محمد عيد عبد الرحيم </t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
@@ -1298,19 +1315,19 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>212338</t>
+          <t>212340</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رؤى محمد عيد عبد الرحيم </t>
+          <t>محمد مختار البشير فضل الله</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1325,19 +1342,19 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>212340</t>
+          <t>212360</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>محمد مختار البشير فضل الله</t>
+          <t>احمد المصطفى محمد السمانى عبد الله</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -1352,19 +1369,19 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>212360</t>
+          <t>212361</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>احمد المصطفى محمد السمانى عبد الله</t>
+          <t>Fatima Mohamed Barakat</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1379,19 +1396,19 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>212361</t>
+          <t>212363</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Fatima Mohamed Barakat</t>
+          <t xml:space="preserve">صلاح الدين حسام خطيب </t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -1406,19 +1423,19 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>212363</t>
+          <t>212365</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">صلاح الدين حسام خطيب </t>
+          <t>يسار عبد الحافظ عفنان التخاينه</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1433,19 +1450,19 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>212365</t>
+          <t>212389</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>يسار عبد الحافظ عفنان التخاينه</t>
+          <t>الحارث حمدنا الله الفكى محمد احمد</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -1460,19 +1477,19 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>212389</t>
+          <t>212399</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>الحارث حمدنا الله الفكى محمد احمد</t>
+          <t>احمد حيدر عبد الله الطيب</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1487,19 +1504,19 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>212399</t>
+          <t>212436</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>احمد حيدر عبد الله الطيب</t>
+          <t>ديمه احمد على القاسم</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -1514,19 +1531,19 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>212436</t>
+          <t>212452</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ديمه احمد على القاسم</t>
+          <t xml:space="preserve">شيماء سعد الدين يوسف احمد </t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1541,19 +1558,19 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>212452</t>
+          <t>212478</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">شيماء سعد الدين يوسف احمد </t>
+          <t>رفقه زاهر محمد عمر</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -1568,19 +1585,19 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>212478</t>
+          <t>212480</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>رفقه زاهر محمد عمر</t>
+          <t>لين احمد محمد سعيد</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1595,19 +1612,19 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>212480</t>
+          <t>212502</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>لين احمد محمد سعيد</t>
+          <t xml:space="preserve">وعد الجزولى عمر موسى </t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -1622,19 +1639,19 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>212502</t>
+          <t>212503</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">وعد الجزولى عمر موسى </t>
+          <t>ملاذ شمباتي محمد البشير</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1649,19 +1666,19 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>212503</t>
+          <t>212504</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>ملاذ شمباتي محمد البشير</t>
+          <t xml:space="preserve">ملاذ معتصم مصطفى الصادق </t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
@@ -1676,19 +1693,19 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>212504</t>
+          <t>212572</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ملاذ معتصم مصطفى الصادق </t>
+          <t>فريده الشربينى</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1703,19 +1720,19 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>212572</t>
+          <t>213005</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>فريده الشربينى</t>
+          <t>اسراء محمد ابراهيم خليل محمد</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
@@ -1730,19 +1747,19 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>213005</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>اسراء محمد ابراهيم خليل محمد</t>
+          <t>رنا علاء ابراهيم جمعه</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1757,19 +1774,19 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>213007</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>رنا علاء ابراهيم جمعه</t>
+          <t xml:space="preserve">نورهان حمدى محمود محمد </t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
@@ -1784,19 +1801,19 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>213007</t>
+          <t>200018</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">نورهان حمدى محمود محمد </t>
+          <t>احمد حسن محمد اسماعيل</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1806,24 +1823,24 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>B2A2</t>
+          <t>B2B1</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>200018</t>
+          <t>200019</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>احمد حسن محمد اسماعيل</t>
+          <t>احمد حماد راشد سليمان</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -1838,19 +1855,19 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>200019</t>
+          <t>200020</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>احمد حماد راشد سليمان</t>
+          <t>احمد خالد بن الوليد عبد الرحيم حسن حسنين</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -1865,19 +1882,19 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>200020</t>
+          <t>200025</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>احمد خالد بن الوليد عبد الرحيم حسن حسنين</t>
+          <t>أحمد سعد أحمد أبو العز أبو الخير</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
@@ -1892,19 +1909,19 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>200025</t>
+          <t>200036</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>أحمد سعد أحمد أبو العز أبو الخير</t>
+          <t>احمد عبدالمطلب ابراهيم محمد</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1919,19 +1936,19 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>200036</t>
+          <t>200055</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>احمد عبدالمطلب ابراهيم محمد</t>
+          <t>احمد محمد موسى نجيب البرهمتوشى</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
@@ -1946,19 +1963,19 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>200055</t>
+          <t>200056</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>احمد محمد موسى نجيب البرهمتوشى</t>
+          <t>احمد محمد وفا ابراهيم سليمان</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -1973,19 +1990,19 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>200056</t>
+          <t>200078</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>احمد محمد وفا ابراهيم سليمان</t>
+          <t>اسراء عيد عشرى سيد</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
@@ -2000,19 +2017,19 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>200078</t>
+          <t>200090</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>اسراء عيد عشرى سيد</t>
+          <t>اسماء فرج الله محمد مختار فرج الله</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2027,19 +2044,19 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>200090</t>
+          <t>200095</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>اسماء فرج الله محمد مختار فرج الله</t>
+          <t>اكرام سلامه عبدالرحمن دسوقى</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
@@ -2054,19 +2071,19 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>200095</t>
+          <t>200104</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>اكرام سلامه عبدالرحمن دسوقى</t>
+          <t>البراء احمد السيد محمد غيطاس</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2081,19 +2098,19 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>200104</t>
+          <t>200106</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>البراء احمد السيد محمد غيطاس</t>
+          <t>السيد حسان المتولى عوض</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
@@ -2108,19 +2125,19 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>200106</t>
+          <t>200108</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>السيد حسان المتولى عوض</t>
+          <t>السيد محمود عبد العظيم السيد محمد</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2135,19 +2152,19 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>200108</t>
+          <t>200110</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>السيد محمود عبد العظيم السيد محمد</t>
+          <t>المعتز محمد حسن عبد السميع</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
@@ -2162,19 +2179,19 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>200110</t>
+          <t>200122</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>المعتز محمد حسن عبد السميع</t>
+          <t>انجى عبد الرءوف على عبد الرؤف علام</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2189,19 +2206,19 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>200122</t>
+          <t>200128</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>انجى عبد الرءوف على عبد الرؤف علام</t>
+          <t>ايات محمود مأمون رضوان</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
@@ -2216,19 +2233,19 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>200128</t>
+          <t>200132</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>ايات محمود مأمون رضوان</t>
+          <t>ايمان ابراهيم السيد السيد الجدى</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2243,19 +2260,19 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>200132</t>
+          <t>200137</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>ايمان ابراهيم السيد السيد الجدى</t>
+          <t>ايمان رضا عبد الرؤف ابو الوفا محمد</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
@@ -2270,19 +2287,19 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>200137</t>
+          <t>200183</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>ايمان رضا عبد الرؤف ابو الوفا محمد</t>
+          <t>جنا نبيل الشحات عوض</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2297,19 +2314,19 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>200183</t>
+          <t>200197</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>جنا نبيل الشحات عوض</t>
+          <t>حسام نصر ابو النصر السيد ابراهيم</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
@@ -2324,19 +2341,19 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>200197</t>
+          <t>200227</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>حسام نصر ابو النصر السيد ابراهيم</t>
+          <t>رامى عاطف يعقوب عزيز</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2351,19 +2368,19 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>200227</t>
+          <t>200237</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>رامى عاطف يعقوب عزيز</t>
+          <t>رحمة طارق احمد فوزى</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
@@ -2378,19 +2395,19 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>200237</t>
+          <t>200260</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>رحمة طارق احمد فوزى</t>
+          <t>روان عماد سعيد محمد</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2405,19 +2422,19 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>200260</t>
+          <t>200274</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>روان عماد سعيد محمد</t>
+          <t>ريم عبد الله محمود فهمى</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
@@ -2432,19 +2449,19 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>200274</t>
+          <t>200286</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>ريم عبد الله محمود فهمى</t>
+          <t>زينب طه قاسم طه حسن زيدان</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2459,19 +2476,19 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>200286</t>
+          <t>200319</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>زينب طه قاسم طه حسن زيدان</t>
+          <t>سما مصطفى محمد محمد محمد ابراهيم</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
@@ -2486,19 +2503,19 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>200319</t>
+          <t>200329</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>سما مصطفى محمد محمد محمد ابراهيم</t>
+          <t>سهيله اسامه عبد العليم الصاوى حامد</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2513,19 +2530,19 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>200329</t>
+          <t>200372</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>سهيله اسامه عبد العليم الصاوى حامد</t>
+          <t>عبد الرحمن احمد فؤاد محمد</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
@@ -2540,19 +2557,19 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>200372</t>
+          <t>200374</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن احمد فؤاد محمد</t>
+          <t>عبد الرحمن احمد مصطفى محمد النجار</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -2567,19 +2584,19 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>200374</t>
+          <t>200379</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>عبد الرحمن احمد مصطفى محمد النجار</t>
+          <t>عبد الرحمن عصام عطية على النجار</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
@@ -2594,19 +2611,19 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>200379</t>
+          <t>200385</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن عصام عطية على النجار</t>
+          <t>عبد الرحمن محمد السيد محمد</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -2621,19 +2638,19 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>200385</t>
+          <t>200398</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>عبد الرحمن محمد السيد محمد</t>
+          <t>عبد الله خالد احمد السيد محمد</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
@@ -2648,19 +2665,19 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>200398</t>
+          <t>200445</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>عبد الله خالد احمد السيد محمد</t>
+          <t>غاده عبد الكريم عبد العليم عبد الكريم</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -2675,19 +2692,19 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>200445</t>
+          <t>200449</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>غاده عبد الكريم عبد العليم عبد الكريم</t>
+          <t>فارس عبدالرحيم محمد عبدالرحمن العايدى</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
@@ -2702,19 +2719,19 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>200449</t>
+          <t>200456</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>فارس عبدالرحيم محمد عبدالرحمن العايدى</t>
+          <t>فاطمه سليمان محمود حسن عبد الرحمن</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -2729,19 +2746,19 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>200456</t>
+          <t>200459</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>فاطمه سليمان محمود حسن عبد الرحمن</t>
+          <t>فاطمه محمد حسن احمد خليل</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
@@ -2756,19 +2773,19 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>200459</t>
+          <t>200461</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>فاطمه محمد حسن احمد خليل</t>
+          <t>فاطمه محمد عبد الفتاح عبد الهادى</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -2783,19 +2800,19 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>200461</t>
+          <t>200469</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>فاطمه محمد عبد الفتاح عبد الهادى</t>
+          <t>فريده فاروق محمد رشدى محمود</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
@@ -2810,19 +2827,19 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>200469</t>
+          <t>200477</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>فريده فاروق محمد رشدى محمود</t>
+          <t>كريم احمد محمد ايوب حسن</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -2837,19 +2854,19 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>200477</t>
+          <t>200531</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>كريم احمد محمد ايوب حسن</t>
+          <t>محمد حامد محمد حامد البريدى</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
@@ -2864,19 +2881,19 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>200531</t>
+          <t>200536</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>محمد حامد محمد حامد البريدى</t>
+          <t>محمد رضا جمعه ابراهيم عوض</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -2886,24 +2903,24 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>B2B1</t>
+          <t>B2B2</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>200536</t>
+          <t>200554</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>محمد رضا جمعه ابراهيم عوض</t>
+          <t xml:space="preserve">محمد عبد الله محمد جاد الله </t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
@@ -2918,19 +2935,19 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>200554</t>
+          <t>200555</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد عبد الله محمد جاد الله </t>
+          <t>محمد عبد المنعم انور محمد</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -2945,19 +2962,19 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>200555</t>
+          <t>200560</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>محمد عبد المنعم انور محمد</t>
+          <t>محمد على محمد الحسينى حسن الوكيل</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
@@ -2972,19 +2989,19 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>200560</t>
+          <t>200603</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>محمد على محمد الحسينى حسن الوكيل</t>
+          <t>مريم محمد شبل عبد الفتاح فرج</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -2999,19 +3016,19 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>200603</t>
+          <t>200620</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>مريم محمد شبل عبد الفتاح فرج</t>
+          <t>مصطفى محمود بيومي عواد الروبي</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
@@ -3026,19 +3043,19 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>200620</t>
+          <t>200638</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>مصطفى محمود بيومي عواد الروبي</t>
+          <t>منة الله هانى ماهر على يوسف</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -3053,19 +3070,19 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>200638</t>
+          <t>200644</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>منة الله هانى ماهر على يوسف</t>
+          <t>منى عامر فرج الله عيد حجاب</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
@@ -3080,19 +3097,19 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>200644</t>
+          <t>200660</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>منى عامر فرج الله عيد حجاب</t>
+          <t>ميرنا رضا ربيع عبد الرازق عبد العال</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -3107,19 +3124,19 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>200660</t>
+          <t>200673</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>ميرنا رضا ربيع عبد الرازق عبد العال</t>
+          <t>ندى اسماعيل رياض اسماعيل</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
@@ -3134,19 +3151,19 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>200673</t>
+          <t>200719</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>ندى اسماعيل رياض اسماعيل</t>
+          <t xml:space="preserve">هاجر طارق صلاح محمد سليم </t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3161,19 +3178,19 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>200719</t>
+          <t>200721</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاجر طارق صلاح محمد سليم </t>
+          <t>هاجر محمد كامل فرج</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
@@ -3188,19 +3205,19 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>200721</t>
+          <t>200830</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>هاجر محمد كامل فرج</t>
+          <t>ديما احمد محمد النحال</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -3215,19 +3232,19 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>200830</t>
+          <t>200835</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>ديما احمد محمد النحال</t>
+          <t>اسامه ابراهيم محمود عواد</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
@@ -3242,19 +3259,19 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>200835</t>
+          <t>200839</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>اسامه ابراهيم محمود عواد</t>
+          <t>مرام محمد محمود خليل</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -3269,19 +3286,19 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>200839</t>
+          <t>200840</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>مرام محمد محمود خليل</t>
+          <t>ابراهيم كفاح سعيد نسمان</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
@@ -3296,19 +3313,19 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>200840</t>
+          <t>200854</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>ابراهيم كفاح سعيد نسمان</t>
+          <t>عبد الرحمن محمد رفيق جزر</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -3323,19 +3340,19 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>200854</t>
+          <t>200859</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>عبد الرحمن محمد رفيق جزر</t>
+          <t>سالى يوسف محمد ناجى</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
@@ -3350,19 +3367,19 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>200859</t>
+          <t>200860</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>سالى يوسف محمد ناجى</t>
+          <t>قصى محمد على المحاميد</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -3377,19 +3394,19 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>200860</t>
+          <t>200862</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>قصى محمد على المحاميد</t>
+          <t>محمد ابراهيم محمد خير ابو زينه</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
@@ -3404,19 +3421,19 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>200862</t>
+          <t>200879</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>محمد ابراهيم محمد خير ابو زينه</t>
+          <t>احمد مازن سليمان ابو عامر</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -3431,19 +3448,19 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>200879</t>
+          <t>200880</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>احمد مازن سليمان ابو عامر</t>
+          <t>احمد ميعاد على الميسرى</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
@@ -3458,19 +3475,19 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>200880</t>
+          <t>200888</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>احمد ميعاد على الميسرى</t>
+          <t>احمد خالد عبد الله البلوى</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -3485,19 +3502,19 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>200888</t>
+          <t>200899</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>احمد خالد عبد الله البلوى</t>
+          <t>محمد تيسير محمد ابو شماله</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -3512,19 +3529,19 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>200899</t>
+          <t>200918</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>محمد تيسير محمد ابو شماله</t>
+          <t>Haneen Mahfood Abodullah</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -3539,19 +3556,19 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>200918</t>
+          <t>200941</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>Haneen Mahfood Abodullah</t>
+          <t>عمر فاروق محمد مساعده</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
@@ -3566,19 +3583,19 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>200941</t>
+          <t>200953</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>عمر فاروق محمد مساعده</t>
+          <t>صبحى محمد صبحى شناعه</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -3593,19 +3610,19 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>200953</t>
+          <t>200957</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>صبحى محمد صبحى شناعه</t>
+          <t>رحيق صالح فائق الطراونه</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
@@ -3620,19 +3637,19 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>200957</t>
+          <t>200962</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>رحيق صالح فائق الطراونه</t>
+          <t>نور زكريا محمد صالح</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -3647,19 +3664,19 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>200962</t>
+          <t>200965</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>نور زكريا محمد صالح</t>
+          <t>عاصم رافت محمود القضاه</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
@@ -3674,19 +3691,19 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>200965</t>
+          <t>200966</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>عاصم رافت محمود القضاه</t>
+          <t>براءه الطاهر عبد الرازق جمعه</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -3701,19 +3718,19 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>200966</t>
+          <t>200967</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>براءه الطاهر عبد الرازق جمعه</t>
+          <t>محمود عطى الله حسين الازرق</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -3728,19 +3745,19 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>200967</t>
+          <t>200988</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>محمود عطى الله حسين الازرق</t>
+          <t>ملاك اسامه عيسى اليتيم</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -3755,19 +3772,19 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>200988</t>
+          <t>200995</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>ملاك اسامه عيسى اليتيم</t>
+          <t>رزان صلاح سليم المحتسب</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -3782,19 +3799,19 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>200995</t>
+          <t>200996</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>رزان صلاح سليم المحتسب</t>
+          <t>بلقيس محمود حسين العسولى</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -3809,19 +3826,19 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>200996</t>
+          <t>201014</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>بلقيس محمود حسين العسولى</t>
+          <t>بسمه احمد زكى على ابراهيم</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
@@ -3831,24 +3848,24 @@
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>B2B2</t>
+          <t>B2C1</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>201014</t>
+          <t>201015</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>بسمه احمد زكى على ابراهيم</t>
+          <t>اسامه فايز احمد الحديدى</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -3863,19 +3880,19 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>201015</t>
+          <t>201029</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>اسامه فايز احمد الحديدى</t>
+          <t>عماد امين سعيد عزريل</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
@@ -3890,19 +3907,19 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>201029</t>
+          <t>201031</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>عماد امين سعيد عزريل</t>
+          <t xml:space="preserve">       عمر محمد على السيد </t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -3917,19 +3934,19 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>201031</t>
+          <t>201035</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">       عمر محمد على السيد </t>
+          <t>نسيبه عبد الرحمن احمد محمد الرباحى</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
@@ -3944,19 +3961,19 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>201035</t>
+          <t>201061</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>نسيبه عبد الرحمن احمد محمد الرباحى</t>
+          <t>عبد اللطيف عدنان احمد</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -3971,19 +3988,19 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>201061</t>
+          <t>201066</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>عبد اللطيف عدنان احمد</t>
+          <t xml:space="preserve">راما رفعت عطا ابو شامه </t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
@@ -3998,19 +4015,19 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>201066</t>
+          <t>201165</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">راما رفعت عطا ابو شامه </t>
+          <t>منار منصور سلامه عطيه</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -4025,19 +4042,19 @@
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>201165</t>
+          <t>201202</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>منار منصور سلامه عطيه</t>
+          <t xml:space="preserve">حازم ياسر خالد صلاحات </t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
@@ -4052,19 +4069,19 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>201202</t>
+          <t>201210</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حازم ياسر خالد صلاحات </t>
+          <t>خالد فوزى سلمان محمد</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -4079,19 +4096,19 @@
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>201210</t>
+          <t>201214</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>خالد فوزى سلمان محمد</t>
+          <t>سجاد عادل محمد عابدين محمد</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
@@ -4106,19 +4123,19 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>201214</t>
+          <t>201228</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>سجاد عادل محمد عابدين محمد</t>
+          <t>خلود منير علوى عبد الله العولقى</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -4133,19 +4150,19 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>201228</t>
+          <t>201233</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>خلود منير علوى عبد الله العولقى</t>
+          <t>حنين سليمان منصور اجباره</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
@@ -4160,19 +4177,19 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>201233</t>
+          <t>201234</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>حنين سليمان منصور اجباره</t>
+          <t>فادى عمر رمضان سلمان</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -4187,19 +4204,19 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>201234</t>
+          <t>201239</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>فادى عمر رمضان سلمان</t>
+          <t>احمد جواد توفيق صوافطه</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
@@ -4214,19 +4231,19 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>201239</t>
+          <t>201243</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>احمد جواد توفيق صوافطه</t>
+          <t>ساره محسن نصار العلاونه</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -4241,19 +4258,19 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>201243</t>
+          <t>201246</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>ساره محسن نصار العلاونه</t>
+          <t>عباده عز الدين ضيف الله الشواشره</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
@@ -4268,19 +4285,19 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>201246</t>
+          <t>201247</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>عباده عز الدين ضيف الله الشواشره</t>
+          <t>جمانه ابراهيم محمد كلوش</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -4295,19 +4312,19 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>201247</t>
+          <t>201265</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>جمانه ابراهيم محمد كلوش</t>
+          <t>عبدالله علي طه</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
@@ -4322,19 +4339,19 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>201265</t>
+          <t>201274</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>عبدالله علي طه</t>
+          <t>احمد رضا عبد النبى محمد جبر الزينى</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -4349,19 +4366,19 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>201274</t>
+          <t>201290</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>احمد رضا عبد النبى محمد جبر الزينى</t>
+          <t>اريج يوسف عثمان عمر</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
@@ -4376,19 +4393,19 @@
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>201290</t>
+          <t>201301</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>اريج يوسف عثمان عمر</t>
+          <t>بشار يوسف محمد على الذمارى</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -4403,19 +4420,19 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>201301</t>
+          <t>201312</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>بشار يوسف محمد على الذمارى</t>
+          <t>اياس برجس ياسين الزعبى</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
@@ -4430,19 +4447,19 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>201312</t>
+          <t>201322</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>اياس برجس ياسين الزعبى</t>
+          <t>سيف الاسلام بسام محمد فاتح ابو زيتون</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -4457,19 +4474,19 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>201322</t>
+          <t>201329</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>سيف الاسلام بسام محمد فاتح ابو زيتون</t>
+          <t>احمد مصطفى محمد رحال</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
@@ -4484,19 +4501,19 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>201329</t>
+          <t>201331</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>احمد مصطفى محمد رحال</t>
+          <t>ندى مسعد حسن توفيق</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -4511,19 +4528,19 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>201331</t>
+          <t>201336</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>ندى مسعد حسن توفيق</t>
+          <t>رولا رائد عطا عليان</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
@@ -4538,19 +4555,19 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>201336</t>
+          <t>201360</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>رولا رائد عطا عليان</t>
+          <t>سجى وائل محمد</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -4565,19 +4582,19 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>201360</t>
+          <t>201364</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>سجى وائل محمد</t>
+          <t>احمد طلال محمد البطران</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
@@ -4592,19 +4609,19 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>201364</t>
+          <t>201371</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>احمد طلال محمد البطران</t>
+          <t>جهاد هانى محمود احمد غالى</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -4619,19 +4636,19 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>201371</t>
+          <t>201381</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>جهاد هانى محمود احمد غالى</t>
+          <t>لينا احمد على بن يمين</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
@@ -4646,19 +4663,19 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>201381</t>
+          <t>201416</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>لينا احمد على بن يمين</t>
+          <t>كرم رفيق على عبد النبي</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -4673,19 +4690,19 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>201416</t>
+          <t>201451</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>كرم رفيق على عبد النبي</t>
+          <t>حسين محمد عبد الله عجينه</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
@@ -4700,19 +4717,19 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>201451</t>
+          <t>201458</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>حسين محمد عبد الله عجينه</t>
+          <t>يونس رافد جاسم</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -4727,19 +4744,19 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>201458</t>
+          <t>201460</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>يونس رافد جاسم</t>
+          <t>يحيى عادل داود ابو رياله</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
@@ -4754,19 +4771,19 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>201460</t>
+          <t>201479</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>يحيى عادل داود ابو رياله</t>
+          <t>شروق محمد عبد الله المهر</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -4781,19 +4798,19 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>201479</t>
+          <t>201480</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>شروق محمد عبد الله المهر</t>
+          <t>لقاء ابراهيم الهاشمى عتوسى</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
@@ -4808,19 +4825,19 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>201480</t>
+          <t>201485</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>لقاء ابراهيم الهاشمى عتوسى</t>
+          <t>غزوان محمد شادى غزوان الصنيب</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -4835,19 +4852,19 @@
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>201485</t>
+          <t>201488</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>غزوان محمد شادى غزوان الصنيب</t>
+          <t>طه محمود ذوقان المطر</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
@@ -4862,19 +4879,19 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>201488</t>
+          <t>201498</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>طه محمود ذوقان المطر</t>
+          <t>اياد اسماعيل عبد الله الشعيبى</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -4889,19 +4906,19 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>201498</t>
+          <t>201507</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>اياد اسماعيل عبد الله الشعيبى</t>
+          <t xml:space="preserve">عبد الله احمد سامى </t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
@@ -4916,19 +4933,19 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>201507</t>
+          <t>201508</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الله احمد سامى </t>
+          <t>يمنى احمد خضر الفاضل</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -4943,19 +4960,19 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>201508</t>
+          <t>201517</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>يمنى احمد خضر الفاضل</t>
+          <t>ايمان سميح احمد عابد</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
@@ -4970,19 +4987,19 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>201517</t>
+          <t>201520</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>ايمان سميح احمد عابد</t>
+          <t>صلاح مازن عبيد</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -4997,19 +5014,19 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>201520</t>
+          <t>201532</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>صلاح مازن عبيد</t>
+          <t>فارس محمد جمال نهار</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
@@ -5024,19 +5041,19 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>201532</t>
+          <t>201542</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>فارس محمد جمال نهار</t>
+          <t>امل محمود عوض محمد عمر الحنفى</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5051,19 +5068,19 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>201542</t>
+          <t>201545</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>امل محمود عوض محمد عمر الحنفى</t>
+          <t xml:space="preserve">سليمان محمد مجاهد البجلى </t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
@@ -5078,19 +5095,19 @@
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>201545</t>
+          <t>201558</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">سليمان محمد مجاهد البجلى </t>
+          <t>ماجد صلاح موسى الخرشه</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -5105,19 +5122,19 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>201558</t>
+          <t>201560</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>ماجد صلاح موسى الخرشه</t>
+          <t>صهيب محمد عبد الخالق طه</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
@@ -5132,19 +5149,19 @@
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>201560</t>
+          <t>201561</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>صهيب محمد عبد الخالق طه</t>
+          <t>يحيى حسنين حسن زنون</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5159,19 +5176,19 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>201561</t>
+          <t>201567</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>يحيى حسنين حسن زنون</t>
+          <t>مها عبد النبى النوبى ابراهيم</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
@@ -5186,19 +5203,19 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>201567</t>
+          <t>201601</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>مها عبد النبى النوبى ابراهيم</t>
+          <t>شوق حزام على حزام</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -5213,19 +5230,19 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>201601</t>
+          <t>201607</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>شوق حزام على حزام</t>
+          <t>حسام سيف سعيد محمد غالب</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
@@ -5235,24 +5252,24 @@
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>B2C1</t>
+          <t>B2C2</t>
         </is>
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>201607</t>
+          <t>201616</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>حسام سيف سعيد محمد غالب</t>
+          <t xml:space="preserve">مجده ابراهيم عبد اللطيف احمد جاد </t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -5267,19 +5284,19 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>201616</t>
+          <t>201617</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مجده ابراهيم عبد اللطيف احمد جاد </t>
+          <t>رويدا محمود السيد عزب حسانين</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -5294,19 +5311,19 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>201617</t>
+          <t>201618</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>رويدا محمود السيد عزب حسانين</t>
+          <t>دارين حسام محمد الرفاعى حسنين الشيخ</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -5321,19 +5338,19 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>201618</t>
+          <t>201619</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>دارين حسام محمد الرفاعى حسنين الشيخ</t>
+          <t>ايمان عطا عبد الحليم مصطفى اسماعيل</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
@@ -5348,19 +5365,19 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>201619</t>
+          <t>201621</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>ايمان عطا عبد الحليم مصطفى اسماعيل</t>
+          <t>خلود كارم محمد سليمان مصطفى</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -5375,19 +5392,19 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>201621</t>
+          <t>201627</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>خلود كارم محمد سليمان مصطفى</t>
+          <t>محمد محمود رضا السيد حميده</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
@@ -5402,19 +5419,19 @@
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>201627</t>
+          <t>201631</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>محمد محمود رضا السيد حميده</t>
+          <t>محمد ايمن شهدى محمود اسماعيل</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -5429,19 +5446,19 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>201631</t>
+          <t>201634</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>محمد ايمن شهدى محمود اسماعيل</t>
+          <t>خالد احمد عبد الفتاح عبد القادر البدوى</t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
@@ -5456,19 +5473,19 @@
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>201634</t>
+          <t>201640</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>خالد احمد عبد الفتاح عبد القادر البدوى</t>
+          <t>ساره رضا محمد سالم ريان</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -5483,19 +5500,19 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>201640</t>
+          <t>201642</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>ساره رضا محمد سالم ريان</t>
+          <t>عفاف محسن امين عبد المجيد عبد العال</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
@@ -5510,19 +5527,19 @@
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>201642</t>
+          <t>201645</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>عفاف محسن امين عبد المجيد عبد العال</t>
+          <t>معاذ حسان محمود قاسم</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -5537,19 +5554,19 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>201645</t>
+          <t>201649</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>معاذ حسان محمود قاسم</t>
+          <t>احمد عبد العاطى فتحى سليمان محمد خالد</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
@@ -5564,19 +5581,19 @@
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>201649</t>
+          <t>201653</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>احمد عبد العاطى فتحى سليمان محمد خالد</t>
+          <t>فارس هانى محمد السيد</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -5591,19 +5608,19 @@
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>201653</t>
+          <t>201661</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>فارس هانى محمد السيد</t>
+          <t>ايه محمود البهى محمود جمعه</t>
         </is>
       </c>
       <c r="C191" s="4" t="inlineStr">
@@ -5618,19 +5635,19 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>201661</t>
+          <t>201666</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>ايه محمود البهى محمود جمعه</t>
+          <t>رانيا ياسر عبدالجواد عبد العاطى</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -5645,19 +5662,19 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>201666</t>
+          <t>201667</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>رانيا ياسر عبدالجواد عبد العاطى</t>
+          <t>ايات اديب سيد احمد دويدار بدره</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr">
@@ -5672,19 +5689,19 @@
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>201667</t>
+          <t>201668</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>ايات اديب سيد احمد دويدار بدره</t>
+          <t>حنان مجدى عماد ابراهيم الزميتى</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -5699,19 +5716,19 @@
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>201668</t>
+          <t>201675</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>حنان مجدى عماد ابراهيم الزميتى</t>
+          <t>فداء مصطفى السيد محمد الحداد</t>
         </is>
       </c>
       <c r="C195" s="4" t="inlineStr">
@@ -5726,19 +5743,19 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>201675</t>
+          <t>201676</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>فداء مصطفى السيد محمد الحداد</t>
+          <t>ساره الحسين محمد محمد السيد</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -5753,19 +5770,19 @@
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>201676</t>
+          <t>201677</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>ساره الحسين محمد محمد السيد</t>
+          <t>اسماء عبد الحميد رضوان راشد رضوان</t>
         </is>
       </c>
       <c r="C197" s="4" t="inlineStr">
@@ -5780,19 +5797,19 @@
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>201677</t>
+          <t>201678</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>اسماء عبد الحميد رضوان راشد رضوان</t>
+          <t>دعاء ايمن محمد العيسوى على</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -5807,19 +5824,19 @@
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>201678</t>
+          <t>201679</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>دعاء ايمن محمد العيسوى على</t>
+          <t>افنان السعيد محمد السيد البرناوى</t>
         </is>
       </c>
       <c r="C199" s="4" t="inlineStr">
@@ -5834,19 +5851,19 @@
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>201679</t>
+          <t>201680</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>افنان السعيد محمد السيد البرناوى</t>
+          <t>جهاد سلطان على نصر</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -5861,19 +5878,19 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>201680</t>
+          <t>201681</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>جهاد سلطان على نصر</t>
+          <t>ندى عطيه اسماعيا محمد سليم</t>
         </is>
       </c>
       <c r="C201" s="4" t="inlineStr">
@@ -5888,19 +5905,19 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>201681</t>
+          <t>201683</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>ندى عطيه اسماعيا محمد سليم</t>
+          <t>فوزيه شعبان محمد احمد خاطر</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -5915,19 +5932,19 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>201683</t>
+          <t>201686</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>فوزيه شعبان محمد احمد خاطر</t>
+          <t>محمد هانى لطفى سلامه عوده</t>
         </is>
       </c>
       <c r="C203" s="4" t="inlineStr">
@@ -5942,19 +5959,19 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>201686</t>
+          <t>201690</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>محمد هانى لطفى سلامه عوده</t>
+          <t>علاء السيد الدسوقى السيد الزينى</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -5969,19 +5986,19 @@
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>201690</t>
+          <t>201694</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>علاء السيد الدسوقى السيد الزينى</t>
+          <t>عامر حسام محمد جاروشه</t>
         </is>
       </c>
       <c r="C205" s="4" t="inlineStr">
@@ -5996,19 +6013,19 @@
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>201694</t>
+          <t>201715</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>عامر حسام محمد جاروشه</t>
+          <t>محمد المبارك ابراهيم محمد ابراهيم</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -6023,19 +6040,19 @@
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>201715</t>
+          <t>201763</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>محمد المبارك ابراهيم محمد ابراهيم</t>
+          <t>يوسف مهنى سهيل</t>
         </is>
       </c>
       <c r="C207" s="4" t="inlineStr">
@@ -6050,19 +6067,19 @@
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>201763</t>
+          <t>201790</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>يوسف مهنى سهيل</t>
+          <t xml:space="preserve">على عماد حمدى </t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -6077,19 +6094,19 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>201790</t>
+          <t>201796</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">على عماد حمدى </t>
+          <t>سر الختم عبد الرؤوف حسب الرسول محمد</t>
         </is>
       </c>
       <c r="C209" s="4" t="inlineStr">
@@ -6104,19 +6121,19 @@
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>201796</t>
+          <t>201798</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>سر الختم عبد الرؤوف حسب الرسول محمد</t>
+          <t>عبد الله محمد حسنى قعدان</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -6131,19 +6148,19 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>201798</t>
+          <t>201814</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>عبد الله محمد حسنى قعدان</t>
+          <t>محمد عبد الحسن سعدون مزهر</t>
         </is>
       </c>
       <c r="C211" s="4" t="inlineStr">
@@ -6158,19 +6175,19 @@
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>201814</t>
+          <t>201846</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>محمد عبد الحسن سعدون مزهر</t>
+          <t xml:space="preserve">احمد فرج ابراهيم الساعدي </t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -6185,19 +6202,19 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>201846</t>
+          <t>201847</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد فرج ابراهيم الساعدي </t>
+          <t>على قاسم محمد</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
@@ -6212,19 +6229,19 @@
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>201847</t>
+          <t>201850</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>على قاسم محمد</t>
+          <t>خطاب طالب صالح</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -6239,19 +6256,19 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>201850</t>
+          <t>201852</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>خطاب طالب صالح</t>
+          <t>عبد العزيز حمود على العقاب الشمرى</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
@@ -6266,19 +6283,19 @@
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>201852</t>
+          <t>201869</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>عبد العزيز حمود على العقاب الشمرى</t>
+          <t>ادهم هشام احمد جاب الله الغزالى</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -6293,19 +6310,19 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>201869</t>
+          <t>201874</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>ادهم هشام احمد جاب الله الغزالى</t>
+          <t>تهانى محمد طاهر</t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
@@ -6320,19 +6337,19 @@
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>201874</t>
+          <t>201882</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>تهانى محمد طاهر</t>
+          <t>على صالح محمد صالح</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -6347,19 +6364,19 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>201882</t>
+          <t>201885</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>على صالح محمد صالح</t>
+          <t xml:space="preserve">بشار حمير اجود </t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
@@ -6374,19 +6391,19 @@
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>201885</t>
+          <t>201888</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">بشار حمير اجود </t>
+          <t>محمد زهير حمدى زهير زيات</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -6401,19 +6418,19 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>201888</t>
+          <t>201899</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>محمد زهير حمدى زهير زيات</t>
+          <t xml:space="preserve">مراد رياض مراد </t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
@@ -6428,19 +6445,19 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>201899</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مراد رياض مراد </t>
+          <t xml:space="preserve">هاديه محمد عثمان سلطان </t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -6455,19 +6472,19 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201921</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاديه محمد عثمان سلطان </t>
+          <t>مصطفى زهير حمزه العمشاوي</t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
@@ -6482,19 +6499,19 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>201921</t>
+          <t>201942</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>مصطفى زهير حمزه العمشاوي</t>
+          <t>بتول عطا جبر البسيونى</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -6509,19 +6526,19 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
-          <t>201942</t>
+          <t>201986</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>بتول عطا جبر البسيونى</t>
+          <t>بنين عادل محمد محمد</t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
@@ -6536,19 +6553,19 @@
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>201986</t>
+          <t>201987</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>بنين عادل محمد محمد</t>
+          <t>ذود مظفر محسن بنى عكبه</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -6563,19 +6580,19 @@
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="4" t="inlineStr">
         <is>
-          <t>201987</t>
+          <t>201993</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>ذود مظفر محسن بنى عكبه</t>
+          <t xml:space="preserve">على جاسم محمد </t>
         </is>
       </c>
       <c r="C227" s="4" t="inlineStr">
@@ -6590,19 +6607,19 @@
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>201993</t>
+          <t>180422</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">على جاسم محمد </t>
+          <t>محمود رضا محمود توفيق عبد الصمد</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -6612,24 +6629,24 @@
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>B2C2</t>
+          <t>B2D1</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="inlineStr">
         <is>
-          <t>180422</t>
+          <t>180530</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>محمود رضا محمود توفيق عبد الصمد</t>
+          <t>نورا وليد احمد محمد الشنهابى</t>
         </is>
       </c>
       <c r="C229" s="4" t="inlineStr">
@@ -6644,19 +6661,19 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>180530</t>
+          <t>180653</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>نورا وليد احمد محمد الشنهابى</t>
+          <t>عبد الرحمن خالد احمد عبد الحميد راشد</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -6671,19 +6688,19 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="4" t="inlineStr">
         <is>
-          <t>180653</t>
+          <t>180752</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t>عبد الرحمن خالد احمد عبد الحميد راشد</t>
+          <t xml:space="preserve">      محمد خالد محمد جبريل اسبيتان</t>
         </is>
       </c>
       <c r="C231" s="4" t="inlineStr">
@@ -6698,19 +6715,19 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>180752</t>
+          <t>180863</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      محمد خالد محمد جبريل اسبيتان</t>
+          <t>محمد احمد عبد العزيز رمضان ابو ضياء</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
@@ -6725,19 +6742,19 @@
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="inlineStr">
         <is>
-          <t>180863</t>
+          <t>180893</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t>محمد احمد عبد العزيز رمضان ابو ضياء</t>
+          <t>دانا فواز رجا الجبور</t>
         </is>
       </c>
       <c r="C233" s="4" t="inlineStr">
@@ -6752,19 +6769,19 @@
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>180893</t>
+          <t>181006</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>دانا فواز رجا الجبور</t>
+          <t>منصور منصور سالم بواعنه</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
@@ -6779,19 +6796,19 @@
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="4" t="inlineStr">
         <is>
-          <t>181006</t>
+          <t>202024</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>منصور منصور سالم بواعنه</t>
+          <t>محمد عدنان احمد</t>
         </is>
       </c>
       <c r="C235" s="4" t="inlineStr">
@@ -6806,19 +6823,19 @@
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>202024</t>
+          <t>202029</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>محمد عدنان احمد</t>
+          <t>محمد قيس عبد الساده</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -6833,19 +6850,19 @@
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="4" t="inlineStr">
         <is>
-          <t>202029</t>
+          <t>202032</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>محمد قيس عبد الساده</t>
+          <t>امجد محمد سالم عتال</t>
         </is>
       </c>
       <c r="C237" s="4" t="inlineStr">
@@ -6860,19 +6877,19 @@
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>202032</t>
+          <t>202046</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t>امجد محمد سالم عتال</t>
+          <t>مريم عبد الرحمن البار</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
@@ -6887,19 +6904,19 @@
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="4" t="inlineStr">
         <is>
-          <t>202046</t>
+          <t>202048</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>مريم عبد الرحمن البار</t>
+          <t xml:space="preserve">زهراء اسامه يونس </t>
         </is>
       </c>
       <c r="C239" s="4" t="inlineStr">
@@ -6914,19 +6931,19 @@
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>202048</t>
+          <t>202050</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">زهراء اسامه يونس </t>
+          <t>صالح بسام طليع طليع</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
@@ -6941,19 +6958,19 @@
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="4" t="inlineStr">
         <is>
-          <t>202050</t>
+          <t>202051</t>
         </is>
       </c>
       <c r="B241" s="4" t="inlineStr">
         <is>
-          <t>صالح بسام طليع طليع</t>
+          <t>على باسل اكرم</t>
         </is>
       </c>
       <c r="C241" s="4" t="inlineStr">
@@ -6968,19 +6985,19 @@
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>202051</t>
+          <t>202054</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>على باسل اكرم</t>
+          <t xml:space="preserve">صفا كاظم ثامر </t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
@@ -6995,19 +7012,19 @@
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="4" t="inlineStr">
         <is>
-          <t>202054</t>
+          <t>202055</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">صفا كاظم ثامر </t>
+          <t>مصطفى داود سلمان</t>
         </is>
       </c>
       <c r="C243" s="4" t="inlineStr">
@@ -7022,19 +7039,19 @@
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>202055</t>
+          <t>202056</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>مصطفى داود سلمان</t>
+          <t>على صلاح على الجبوري</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
@@ -7049,19 +7066,19 @@
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="4" t="inlineStr">
         <is>
-          <t>202056</t>
+          <t>202064</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>على صلاح على الجبوري</t>
+          <t>سلمى الماحى با بكر الجاك</t>
         </is>
       </c>
       <c r="C245" s="4" t="inlineStr">
@@ -7076,19 +7093,19 @@
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>202064</t>
+          <t>202115</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>سلمى الماحى با بكر الجاك</t>
+          <t>محمد عبد الناصر المغربي</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
@@ -7103,19 +7120,19 @@
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="4" t="inlineStr">
         <is>
-          <t>202115</t>
+          <t>202196</t>
         </is>
       </c>
       <c r="B247" s="4" t="inlineStr">
         <is>
-          <t>محمد عبد الناصر المغربي</t>
+          <t>ساره حسن عبده عبد الحليم حسن</t>
         </is>
       </c>
       <c r="C247" s="4" t="inlineStr">
@@ -7130,19 +7147,19 @@
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>202196</t>
+          <t>210339</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>ساره حسن عبده عبد الحليم حسن</t>
+          <t>احمد محمود محمود عبداللطيف الشايب</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
@@ -7157,19 +7174,19 @@
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="4" t="inlineStr">
         <is>
-          <t>210339</t>
+          <t>210452</t>
         </is>
       </c>
       <c r="B249" s="4" t="inlineStr">
         <is>
-          <t>احمد محمود محمود عبداللطيف الشايب</t>
+          <t>رحمه محمد عبد الفتاح حسن</t>
         </is>
       </c>
       <c r="C249" s="4" t="inlineStr">
@@ -7184,19 +7201,19 @@
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>210452</t>
+          <t>210728</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>رحمه محمد عبد الفتاح حسن</t>
+          <t>ندى احمد عقل على</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
@@ -7211,19 +7228,19 @@
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="4" t="inlineStr">
         <is>
-          <t>210728</t>
+          <t>211290</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>ندى احمد عقل على</t>
+          <t>اروى سر الختم ادم محى الدين</t>
         </is>
       </c>
       <c r="C251" s="4" t="inlineStr">
@@ -7238,19 +7255,19 @@
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>211290</t>
+          <t>212024</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>اروى سر الختم ادم محى الدين</t>
+          <t>مرح كمال احمد المصرى</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
@@ -7265,19 +7282,19 @@
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="4" t="inlineStr">
         <is>
-          <t>212024</t>
+          <t>212048</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>مرح كمال احمد المصرى</t>
+          <t>اسماء عبد القادر عثمان</t>
         </is>
       </c>
       <c r="C253" s="4" t="inlineStr">
@@ -7292,19 +7309,19 @@
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>212048</t>
+          <t>212056</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>اسماء عبد القادر عثمان</t>
+          <t>سنا احمد ضائع</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
@@ -7319,19 +7336,19 @@
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="4" t="inlineStr">
         <is>
-          <t>212056</t>
+          <t>212075</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>سنا احمد ضائع</t>
+          <t>دانه حابس علي محمد سعيد الطيري</t>
         </is>
       </c>
       <c r="C255" s="4" t="inlineStr">
@@ -7346,19 +7363,19 @@
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>212075</t>
+          <t>180047</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>دانه حابس علي محمد سعيد الطيري</t>
+          <t>اجمد محمد علي العساسي</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
@@ -7368,24 +7385,24 @@
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>B2D1</t>
+          <t>B2D2</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="4" t="inlineStr">
         <is>
-          <t>180047</t>
+          <t>181002</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>محمد عصام محمد احمد</t>
+          <t>سعد سلطان سعد الخدام</t>
         </is>
       </c>
       <c r="C257" s="4" t="inlineStr">
@@ -7400,19 +7417,19 @@
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>181002</t>
+          <t>190007</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>ود عبدالله فحيمان البلوي</t>
+          <t xml:space="preserve">       احمد احمد سيد احمد سيد الشحرى</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
@@ -7427,19 +7444,19 @@
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="4" t="inlineStr">
         <is>
-          <t>190007</t>
+          <t>190043</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">       احمد احمد سيد احمد سيد الشحرى</t>
+          <t>احمد ياسر مصلح ابراهيم العطارى</t>
         </is>
       </c>
       <c r="C259" s="4" t="inlineStr">
@@ -7454,19 +7471,19 @@
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>190043</t>
+          <t>190066</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>احمد ياسر مصلح ابراهيم العطارى</t>
+          <t>الاء عبد المعز الدسوقى محمد</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
@@ -7481,19 +7498,19 @@
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="4" t="inlineStr">
         <is>
-          <t>190066</t>
+          <t>190212</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>الاء عبد المعز الدسوقى محمد</t>
+          <t xml:space="preserve"> سلمى عبد الحميد محمد عبد الحميد سليمان </t>
         </is>
       </c>
       <c r="C261" s="4" t="inlineStr">
@@ -7508,19 +7525,19 @@
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>190212</t>
+          <t>190218</t>
         </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> سلمى عبد الحميد محمد عبد الحميد سليمان </t>
+          <t>سما عصام عبد الرحمن محمد مصطفى باشا</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
@@ -7535,19 +7552,19 @@
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="4" t="inlineStr">
         <is>
-          <t>190218</t>
+          <t>190219</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
         <is>
-          <t>سما عصام عبد الرحمن محمد مصطفى باشا</t>
+          <t>سماء محمود متولى رجب</t>
         </is>
       </c>
       <c r="C263" s="4" t="inlineStr">
@@ -7562,19 +7579,19 @@
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>190219</t>
+          <t>190250</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>سماء محمود متولى رجب</t>
+          <t>عبد الله سمير عاشور ابراهيم</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
@@ -7589,19 +7606,19 @@
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="4" t="inlineStr">
         <is>
-          <t>190250</t>
+          <t>190303</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>عبد الله سمير عاشور ابراهيم</t>
+          <t>لارا علاء محمد السيد سليمان القاضى</t>
         </is>
       </c>
       <c r="C265" s="4" t="inlineStr">
@@ -7616,19 +7633,19 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>190303</t>
+          <t>190333</t>
         </is>
       </c>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>لارا علاء محمد السيد سليمان القاضى</t>
+          <t>محمد خالد سيد منصور حسن</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
@@ -7643,19 +7660,19 @@
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="4" t="inlineStr">
         <is>
-          <t>190333</t>
+          <t>190342</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>محمد خالد سيد منصور حسن</t>
+          <t>محمد عصام محمد احمد</t>
         </is>
       </c>
       <c r="C267" s="4" t="inlineStr">
@@ -7670,19 +7687,19 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>190342</t>
+          <t>190356</t>
         </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t>محمد امجد برجاس</t>
+          <t>محمد هشام محمد كامل عبد الحميد</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
@@ -7697,19 +7714,19 @@
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="4" t="inlineStr">
         <is>
-          <t>190356</t>
+          <t>190387</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>محمد هشام محمد كامل عبد الحميد</t>
+          <t>مريم شعبان سيد شعبان محمد</t>
         </is>
       </c>
       <c r="C269" s="4" t="inlineStr">
@@ -7724,19 +7741,19 @@
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>190387</t>
+          <t>190427</t>
         </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>مريم شعبان سيد شعبان محمد</t>
+          <t>منى رمضان محمد عبد الوهاب السيد</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
@@ -7751,19 +7768,19 @@
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="4" t="inlineStr">
         <is>
-          <t>190427</t>
+          <t>190530</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>منى رمضان محمد عبد الوهاب السيد</t>
+          <t>خالد محمد ابراهيم الدسوقى غنيم</t>
         </is>
       </c>
       <c r="C271" s="4" t="inlineStr">
@@ -7778,19 +7795,19 @@
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>190530</t>
+          <t>190561</t>
         </is>
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>خالد محمد ابراهيم الدسوقى غنيم</t>
+          <t>رنا ممدوح محمد المصرى</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
@@ -7805,19 +7822,19 @@
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="4" t="inlineStr">
         <is>
-          <t>190561</t>
+          <t>190722</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
         <is>
-          <t>رنا ممدوح محمد المصرى</t>
+          <t>عمر عادل عيسى المحاميد</t>
         </is>
       </c>
       <c r="C273" s="4" t="inlineStr">
@@ -7832,19 +7849,19 @@
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>190722</t>
+          <t>190759</t>
         </is>
       </c>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t>عمر عادل عيسى المحاميد</t>
+          <t xml:space="preserve">     عبد الرحمن ابراهيم حماد عنيزات</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
@@ -7859,19 +7876,19 @@
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="4" t="inlineStr">
         <is>
-          <t>190759</t>
+          <t>190779</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">     عبد الرحمن ابراهيم حماد عنيزات</t>
+          <t>منار عزو عبد العزيز شراونه</t>
         </is>
       </c>
       <c r="C275" s="4" t="inlineStr">
@@ -7886,19 +7903,19 @@
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>190779</t>
+          <t>190785</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t>منار عزو عبد العزيز شراونه</t>
+          <t>ود عبدالله فحيمان البلوي</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
@@ -7913,19 +7930,19 @@
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="4" t="inlineStr">
         <is>
-          <t>190785</t>
+          <t>190795</t>
         </is>
       </c>
       <c r="B277" s="4" t="inlineStr">
         <is>
-          <t>محمد مصطفى عبداللطيف</t>
+          <t>رنيم محى الدين محمد طه كحيل</t>
         </is>
       </c>
       <c r="C277" s="4" t="inlineStr">
@@ -7940,19 +7957,19 @@
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>190795</t>
+          <t>190799</t>
         </is>
       </c>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t>رنيم محى الدين محمد طه كحيل</t>
+          <t>لونا محمد فراس شراباتى</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr">
@@ -7967,19 +7984,19 @@
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="4" t="inlineStr">
         <is>
-          <t>190799</t>
+          <t>190825</t>
         </is>
       </c>
       <c r="B279" s="4" t="inlineStr">
         <is>
-          <t>لونا محمد فراس شراباتى</t>
+          <t>انيسه عبد الله محمد</t>
         </is>
       </c>
       <c r="C279" s="4" t="inlineStr">
@@ -7994,19 +8011,19 @@
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>190825</t>
+          <t>190860</t>
         </is>
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>انيسه عبد الله محمد</t>
+          <t>راما محمد موسى مطر</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
@@ -8021,19 +8038,19 @@
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="4" t="inlineStr">
         <is>
-          <t>190860</t>
+          <t>190862</t>
         </is>
       </c>
       <c r="B281" s="4" t="inlineStr">
         <is>
-          <t>راما محمد موسى مطر</t>
+          <t>محمد امجد برجاس</t>
         </is>
       </c>
       <c r="C281" s="4" t="inlineStr">
@@ -8048,19 +8065,19 @@
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>190862</t>
+          <t>190930</t>
         </is>
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>احمد ابراهيم محمد ابو نحل</t>
+          <t>محمود زكريا محمود الملكاوى</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
@@ -8075,19 +8092,19 @@
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="4" t="inlineStr">
         <is>
-          <t>190930</t>
+          <t>190940</t>
         </is>
       </c>
       <c r="B283" s="4" t="inlineStr">
         <is>
-          <t>محمود زكريا محمود الملكاوى</t>
+          <t xml:space="preserve">            تيماء على محمد الدويرى</t>
         </is>
       </c>
       <c r="C283" s="4" t="inlineStr">
@@ -8102,19 +8119,19 @@
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="inlineStr">
         <is>
-          <t>190940</t>
+          <t>190943</t>
         </is>
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">            تيماء على محمد الدويرى</t>
+          <t>حسام فراس عباس القطيشات</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr">
@@ -8129,19 +8146,19 @@
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="4" t="inlineStr">
         <is>
-          <t>190943</t>
+          <t>190955</t>
         </is>
       </c>
       <c r="B285" s="4" t="inlineStr">
         <is>
-          <t>حسام فراس عباس القطيشات</t>
+          <t>عمر محمد جمال</t>
         </is>
       </c>
       <c r="C285" s="4" t="inlineStr">
@@ -8156,19 +8173,19 @@
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>190955</t>
+          <t>190964</t>
         </is>
       </c>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>عمر محمد جمال</t>
+          <t>نور اسماعيل عبد القادر جبر</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr">
@@ -8183,19 +8200,19 @@
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="4" t="inlineStr">
         <is>
-          <t>190964</t>
+          <t>190966</t>
         </is>
       </c>
       <c r="B287" s="4" t="inlineStr">
         <is>
-          <t>نور اسماعيل عبد القادر جبر</t>
+          <t>محمد نورس منجد القاسم</t>
         </is>
       </c>
       <c r="C287" s="4" t="inlineStr">
@@ -8210,19 +8227,19 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>190966</t>
+          <t>190988</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>محمد نورس منجد القاسم</t>
+          <t>رهف سليمان داود سليمان السبع</t>
         </is>
       </c>
       <c r="C288" s="3" t="inlineStr">
@@ -8237,19 +8254,19 @@
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="4" t="inlineStr">
         <is>
-          <t>190988</t>
+          <t>191007</t>
         </is>
       </c>
       <c r="B289" s="4" t="inlineStr">
         <is>
-          <t>رهف سليمان داود سليمان السبع</t>
+          <t xml:space="preserve">عبد القادر سعيد على </t>
         </is>
       </c>
       <c r="C289" s="4" t="inlineStr">
@@ -8264,19 +8281,19 @@
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>191007</t>
+          <t>191010</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد القادر سعيد على </t>
+          <t>مريم فتحى سعيد على</t>
         </is>
       </c>
       <c r="C290" s="3" t="inlineStr">
@@ -8291,19 +8308,19 @@
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="4" t="inlineStr">
         <is>
-          <t>191010</t>
+          <t>191019</t>
         </is>
       </c>
       <c r="B291" s="4" t="inlineStr">
         <is>
-          <t>مريم فتحى سعيد على</t>
+          <t xml:space="preserve">ايمان كمال محمد ابو زهرى </t>
         </is>
       </c>
       <c r="C291" s="4" t="inlineStr">
@@ -8318,19 +8335,19 @@
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>191019</t>
+          <t>191043</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ايمان كمال محمد ابو زهرى </t>
+          <t>سالى حسين مهدى</t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr">
@@ -8345,19 +8362,19 @@
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="4" t="inlineStr">
         <is>
-          <t>191043</t>
+          <t>191060</t>
         </is>
       </c>
       <c r="B293" s="4" t="inlineStr">
         <is>
-          <t>سالى حسين مهدى</t>
+          <t>محمد حسين ادم عبد الله</t>
         </is>
       </c>
       <c r="C293" s="4" t="inlineStr">
@@ -8372,19 +8389,19 @@
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>191060</t>
+          <t>191064</t>
         </is>
       </c>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>محمد حسين ادم عبد الله</t>
+          <t>سجى السيد احمد عمر</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
@@ -8399,19 +8416,19 @@
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="4" t="inlineStr">
         <is>
-          <t>191064</t>
+          <t>191076</t>
         </is>
       </c>
       <c r="B295" s="4" t="inlineStr">
         <is>
-          <t>سجى السيد احمد عمر</t>
+          <t>امل الفاتح جابر محمد عثمان</t>
         </is>
       </c>
       <c r="C295" s="4" t="inlineStr">
@@ -8426,19 +8443,19 @@
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
         <is>
-          <t>191076</t>
+          <t>191092</t>
         </is>
       </c>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t>امل الفاتح جابر محمد عثمان</t>
+          <t xml:space="preserve">ابراهيم احمد عبد                                </t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
@@ -8453,19 +8470,19 @@
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="4" t="inlineStr">
         <is>
-          <t>191092</t>
+          <t>191182</t>
         </is>
       </c>
       <c r="B297" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم احمد عبد                                </t>
+          <t xml:space="preserve">فاروق جميل ابراهيم </t>
         </is>
       </c>
       <c r="C297" s="4" t="inlineStr">
@@ -8480,19 +8497,19 @@
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>191182</t>
+          <t>191185</t>
         </is>
       </c>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">فاروق جميل ابراهيم </t>
+          <t xml:space="preserve">        رسل عبد الجبار اسماعيل</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
@@ -8507,19 +8524,19 @@
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="4" t="inlineStr">
         <is>
-          <t>191185</t>
+          <t>191193</t>
         </is>
       </c>
       <c r="B299" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        رسل عبد الجبار اسماعيل</t>
+          <t>سالى احمد محمد اغرير</t>
         </is>
       </c>
       <c r="C299" s="4" t="inlineStr">
@@ -8534,19 +8551,19 @@
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
         <is>
-          <t>191193</t>
+          <t>191203</t>
         </is>
       </c>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t>سالى احمد محمد اغرير</t>
+          <t>محمد باقر عادل حاتم</t>
         </is>
       </c>
       <c r="C300" s="3" t="inlineStr">
@@ -8561,19 +8578,19 @@
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="4" t="inlineStr">
         <is>
-          <t>191203</t>
+          <t>191205</t>
         </is>
       </c>
       <c r="B301" s="4" t="inlineStr">
         <is>
-          <t>محمد باقر عادل حاتم</t>
+          <t>سحر خالد السماعيل</t>
         </is>
       </c>
       <c r="C301" s="4" t="inlineStr">
@@ -8588,19 +8605,19 @@
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>191205</t>
+          <t>191248</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>سحر خالد السماعيل</t>
+          <t>عبدالله احمد حسين</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr">
@@ -8615,19 +8632,19 @@
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="4" t="inlineStr">
         <is>
-          <t>191248</t>
+          <t>191249</t>
         </is>
       </c>
       <c r="B303" s="4" t="inlineStr">
         <is>
-          <t>عبدالله احمد حسين</t>
+          <t xml:space="preserve">شهد ناصر عبد الله ابو العطا </t>
         </is>
       </c>
       <c r="C303" s="4" t="inlineStr">
@@ -8642,19 +8659,19 @@
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="inlineStr">
         <is>
-          <t>191249</t>
+          <t>191392</t>
         </is>
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">شهد ناصر عبد الله ابو العطا </t>
+          <t>عبد الله ابكر عبد الله سليمان</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr">
@@ -8669,19 +8686,19 @@
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="4" t="inlineStr">
         <is>
-          <t>191392</t>
+          <t>191410</t>
         </is>
       </c>
       <c r="B305" s="4" t="inlineStr">
         <is>
-          <t>عبد الله ابكر عبد الله سليمان</t>
+          <t>محمد ياسر محمد مهدي</t>
         </is>
       </c>
       <c r="C305" s="4" t="inlineStr">
@@ -8696,19 +8713,19 @@
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>191410</t>
+          <t>191413</t>
         </is>
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>محمد ياسر محمد مهدي</t>
+          <t>يوسف على ادريس</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
@@ -8723,19 +8740,19 @@
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="4" t="inlineStr">
         <is>
-          <t>191413</t>
+          <t>191454</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t>يوسف على ادريس</t>
+          <t>حسين العوام قسم السيد محمد</t>
         </is>
       </c>
       <c r="C307" s="4" t="inlineStr">
@@ -8750,19 +8767,19 @@
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
         <is>
-          <t>191454</t>
+          <t>191470</t>
         </is>
       </c>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t>اجمد محمد علي العساسي</t>
+          <t>ابراهيم موسى اسماعيل محمد</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr">
@@ -8777,19 +8794,19 @@
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="4" t="inlineStr">
         <is>
-          <t>191470</t>
+          <t>200770</t>
         </is>
       </c>
       <c r="B309" s="4" t="inlineStr">
         <is>
-          <t>ابراهيم موسى اسماعيل محمد</t>
+          <t>امنيه محمد عبدالحميد</t>
         </is>
       </c>
       <c r="C309" s="4" t="inlineStr">
@@ -8804,19 +8821,19 @@
       </c>
       <c r="E309" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="inlineStr">
         <is>
-          <t>200770</t>
+          <t>200913</t>
         </is>
       </c>
       <c r="B310" s="3" t="inlineStr">
         <is>
-          <t>عمرو عادل شاهين</t>
+          <t>زيد غسان الدويك</t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr">
@@ -8831,7 +8848,7 @@
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8860,7 @@
       </c>
       <c r="B311" s="4" t="inlineStr">
         <is>
-          <t>امنيه محمد عبدالحميد</t>
+          <t>محمود أحمد محمد محمد</t>
         </is>
       </c>
       <c r="C311" s="4" t="inlineStr">
@@ -8858,7 +8875,7 @@
       </c>
       <c r="E311" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8887,7 @@
       </c>
       <c r="B312" s="3" t="inlineStr">
         <is>
-          <t>حسين العوام قسم السيد محمد</t>
+          <t>بكر عثمان مندب</t>
         </is>
       </c>
       <c r="C312" s="3" t="inlineStr">
@@ -8885,7 +8902,7 @@
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
@@ -8897,7 +8914,7 @@
       </c>
       <c r="B313" s="4" t="inlineStr">
         <is>
-          <t>سعد سلطان سعد الخدام</t>
+          <t>تذكار سليمان عيسى</t>
         </is>
       </c>
       <c r="C313" s="4" t="inlineStr">
@@ -8912,7 +8929,7 @@
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8941,7 @@
       </c>
       <c r="B314" s="3" t="inlineStr">
         <is>
-          <t>محمود أحمد محمد محمد</t>
+          <t>احمد ابراهيم محمد ابو نحل</t>
         </is>
       </c>
       <c r="C314" s="3" t="inlineStr">
@@ -8939,7 +8956,7 @@
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8968,7 @@
       </c>
       <c r="B315" s="4" t="inlineStr">
         <is>
-          <t>تذكار سليمان عيسى</t>
+          <t>عمرو عادل محمود</t>
         </is>
       </c>
       <c r="C315" s="4" t="inlineStr">
@@ -8966,7 +8983,7 @@
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
@@ -8978,7 +8995,7 @@
       </c>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t>بكر عثمان مندب</t>
+          <t>محمد مصطفى عبداللطيف</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
@@ -8993,11 +9010,11 @@
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>b2.xlsx</t>
+          <t>b2 - Copy.xlsx</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>